--- a/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,42</t>
+          <t>-2,99; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -1,49</t>
+          <t>-12,97; -1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,97</t>
+          <t>-2,25; 9,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 0,89</t>
+          <t>-7,57; 0,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 65,8</t>
+          <t>-18,62; 61,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,21; -7,1</t>
+          <t>-56,29; -5,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 62,75</t>
+          <t>-11,93; 67,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 7,46</t>
+          <t>-43,4; 7,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,71</t>
+          <t>-4,83; 6,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 7,94</t>
+          <t>-3,7; 7,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 9,46</t>
+          <t>-1,36; 9,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 3,64</t>
+          <t>-6,24; 3,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 43,26</t>
+          <t>-26,41; 49,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 67,96</t>
+          <t>-22,42; 64,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 102,54</t>
+          <t>-9,65; 105,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 26,12</t>
+          <t>-32,49; 28,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 1,09</t>
+          <t>-11,0; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,94</t>
+          <t>-6,16; 3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 5,93</t>
+          <t>-6,95; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 15,09</t>
+          <t>-4,03; 15,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,47; 6,89</t>
+          <t>-52,93; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 29,77</t>
+          <t>-37,04; 29,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 53,17</t>
+          <t>-49,45; 46,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 301,7</t>
+          <t>-23,6; 275,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,2</t>
+          <t>-4,15; 2,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,95</t>
+          <t>-5,29; 1,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,04</t>
+          <t>-2,0; 4,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 0,1</t>
+          <t>-10,29; 0,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 17,8</t>
+          <t>-27,77; 18,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 14,78</t>
+          <t>-30,32; 13,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 35,78</t>
+          <t>-15,39; 41,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,56; -0,04</t>
+          <t>-61,99; 1,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -0,47</t>
+          <t>-8,93; -0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,29; -2,08</t>
+          <t>-9,91; -1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,86</t>
+          <t>-3,75; 2,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -2,91</t>
+          <t>-13,32; -3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -2,07</t>
+          <t>-56,55; -0,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,58; -14,8</t>
+          <t>-52,96; -13,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 35,9</t>
+          <t>-31,2; 38,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,41; -18,25</t>
+          <t>-57,51; -18,69</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -5,69</t>
+          <t>-15,81; -5,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -13,4</t>
+          <t>-24,84; -12,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -4,19</t>
+          <t>-15,32; -4,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 0,41</t>
+          <t>-18,97; -0,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,65; -30,47</t>
+          <t>-59,49; -30,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,17; -46,79</t>
+          <t>-66,05; -46,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -21,73</t>
+          <t>-54,91; -21,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,73; 3,19</t>
+          <t>-61,66; -0,7</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,67</t>
+          <t>-4,98; -1,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -2,33</t>
+          <t>-5,79; -2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,94</t>
+          <t>-1,45; 1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,88</t>
+          <t>-5,55; 0,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -11,09</t>
+          <t>-29,86; -10,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -13,89</t>
+          <t>-31,46; -13,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 15,92</t>
+          <t>-10,16; 14,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 5,57</t>
+          <t>-33,66; 4,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
